--- a/Data/swaption margin hedge.xlsx
+++ b/Data/swaption margin hedge.xlsx
@@ -364,7 +364,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>11007.63533780023</v>
+        <v>57751.98281025857</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>7745.050863893222</v>
+        <v>16362.01477437005</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>4903.707829910113</v>
+        <v>25807.91482923487</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>5439.367004190094</v>
+        <v>1651.278244485203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>96</v>
       </c>
       <c r="B6">
-        <v>5167.896989653232</v>
+        <v>-123.7333924536415</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>120</v>
       </c>
       <c r="B7">
-        <v>7909.111630844782</v>
+        <v>-1706.868136390343</v>
       </c>
     </row>
   </sheetData>
